--- a/Base/Teams/Giants/Target Depth Data.xlsx
+++ b/Base/Teams/Giants/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="C3">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>8</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="C3">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="D3">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>2</v>

--- a/Base/Teams/Giants/Target Depth Data.xlsx
+++ b/Base/Teams/Giants/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="C3">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D3">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="C3">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="D3">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <v>2</v>

--- a/Base/Teams/Giants/Target Depth Data.xlsx
+++ b/Base/Teams/Giants/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="C2">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,13 +506,13 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="C2">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="D2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>38</v>

--- a/Base/Teams/Giants/Target Depth Data.xlsx
+++ b/Base/Teams/Giants/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="C3">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="D3">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E3">
         <v>35</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="C3">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="D3">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>2</v>

--- a/Base/Teams/Giants/Target Depth Data.xlsx
+++ b/Base/Teams/Giants/Target Depth Data.xlsx
@@ -450,10 +450,10 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="C3">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D3">
         <v>78</v>
@@ -462,7 +462,7 @@
         <v>35</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="C3">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="D3">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
